--- a/Anova.xlsx
+++ b/Anova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahp-\OneDrive\Escritorio\Software\ProyectoIntegrador\Nothing-but-speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D16D8E-5D14-4E4A-9CC4-3E95F5C37DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42935CFE-9883-415C-8753-649261C1AC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9330" yWindow="1440" windowWidth="17730" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anova 1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="47">
   <si>
     <t>C#</t>
   </si>
@@ -110,120 +110,6 @@
     <t>Total</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación con un tamaño de arreglo de 500 elementos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">H1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación con un tamaño de arreglo de 500 elementos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación con un tamaño de arreglo de 5000 elementos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">H1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación con un tamaño de arreglo de 5000 elementos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ho</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación con un tamaño de arreglo de 10000 elementos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">H1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación con un tamaño de arreglo de 10000 elementos.</t>
-    </r>
-  </si>
-  <si>
     <t>Como resultado del test se rechaza la hipótesis nula, se acepta la hipótesis alternativa y se concluye que existen diferencias significativas entre las medias de los tiempos.</t>
   </si>
   <si>
@@ -252,6 +138,83 @@
   </si>
   <si>
     <t>Size (500) Ascending values</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>q value =</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 10000 elementos ordenados previamente de forma aleatoria.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 10000 elementos ordenados previamente de forma aleatoria.</t>
+    </r>
+  </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que Java presenta diferencias significativas con respecto a los demás lenguajes siendo el lenguaje que obtuvo el menor tiempo de ejecución en promedio.</t>
+  </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presetan diferencias significativas con respecto a los demás lenguajes, siendo éstos 2 los que tuvieron menores tiempos de ejecución en promedio.</t>
+  </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que todos los lenguajes presetan diferencias significativas entre si, siendo Java el que tuvo menores tiempos de ejecución en promedio.</t>
+  </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presentan diferencias significativas con respecto a los demás lenguajes, siendo éstos 2 los que tuvieron menores tiempos de ejecución en promedio.</t>
+  </si>
+  <si>
+    <t>Con base en el analisis anterior, se puede concluir que Java, Kotlin y Go presentaron diferencias significativas con respecto a C# mostrando tener tiempos de ejecución menores, pero no mostraron ninguna diferencia significativa entre ellos.</t>
+  </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presentan diferencias significativas con respecto a los demás lenguajes, siendo éstos 2 los que tuvieron los menores tiempos de ejecución en promedio.</t>
+  </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Java presentan diferencias significativas con respecto a los demás lenguajes, siendo éstos 2 los que tuvieron los menores tiempos de ejecución en promedio.</t>
+  </si>
+  <si>
+    <t>Con base en el analisis anterior, se puede concluir que Kotlin presenta diferencias significativas con respecto a los demás lenguajes, siendo el lenguaje que tuvo el menor tiempo de ejecución en promedio.</t>
   </si>
 </sst>
 </file>
@@ -287,12 +250,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -342,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -352,10 +321,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,27 +616,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -674,14 +652,14 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.2170999999999998</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>5.9265999999999996</v>
       </c>
       <c r="C3" s="1">
@@ -691,14 +669,14 @@
         <v>0.50790000000000002</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.4491999999999998</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>2.2244000000000002</v>
       </c>
       <c r="C4" s="1">
@@ -712,7 +690,7 @@
       <c r="A5" s="1">
         <v>2.5085000000000002</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>2.8050999999999999</v>
       </c>
       <c r="C5" s="1">
@@ -729,7 +707,7 @@
       <c r="A6" s="1">
         <v>2.5066000000000002</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.80010000000000003</v>
       </c>
       <c r="C6" s="1">
@@ -743,7 +721,7 @@
       <c r="A7" s="1">
         <v>2.6619999999999999</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>2.9973000000000001</v>
       </c>
       <c r="C7" s="1">
@@ -760,7 +738,7 @@
       <c r="A8" s="1">
         <v>2.4748999999999999</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>2.1680999999999999</v>
       </c>
       <c r="C8" s="1">
@@ -789,7 +767,7 @@
       <c r="A9" s="1">
         <v>2.4866000000000001</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>3.7054</v>
       </c>
       <c r="C9" s="1">
@@ -818,7 +796,7 @@
       <c r="A10" s="1">
         <v>2.3936999999999999</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>2.2219000000000002</v>
       </c>
       <c r="C10" s="1">
@@ -847,7 +825,7 @@
       <c r="A11" s="1">
         <v>2.8096999999999999</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>2.1089000000000002</v>
       </c>
       <c r="C11" s="1">
@@ -876,7 +854,7 @@
       <c r="A12" s="1">
         <v>2.2067000000000001</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.1065</v>
       </c>
       <c r="C12" s="1">
@@ -905,7 +883,7 @@
       <c r="A13" s="1">
         <v>2.2801</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>0.1176</v>
       </c>
       <c r="C13" s="1">
@@ -919,7 +897,7 @@
       <c r="A14" s="1">
         <v>2.2052</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0.1082</v>
       </c>
       <c r="C14" s="1">
@@ -933,7 +911,7 @@
       <c r="A15" s="1">
         <v>2.5857999999999999</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>0.1166</v>
       </c>
       <c r="C15" s="1">
@@ -950,7 +928,7 @@
       <c r="A16" s="1">
         <v>2.2025000000000001</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0.11310000000000001</v>
       </c>
       <c r="C16" s="1">
@@ -985,7 +963,7 @@
       <c r="A17" s="1">
         <v>2.3285</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>0.10929999999999999</v>
       </c>
       <c r="C17" s="1">
@@ -1020,7 +998,7 @@
       <c r="A18" s="1">
         <v>2.2063000000000001</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>0.105</v>
       </c>
       <c r="C18" s="1">
@@ -1049,7 +1027,7 @@
       <c r="A19" s="1">
         <v>2.2061000000000002</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>0.10829999999999999</v>
       </c>
       <c r="C19" s="1">
@@ -1070,7 +1048,7 @@
       <c r="A20" s="1">
         <v>2.31</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>9.3399999999999997E-2</v>
       </c>
       <c r="C20" s="1">
@@ -1097,7 +1075,7 @@
       <c r="A21" s="1">
         <v>2.2395999999999998</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>0.11169999999999999</v>
       </c>
       <c r="C21" s="1">
@@ -1111,7 +1089,7 @@
       <c r="A22" s="1">
         <v>2.2061000000000002</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>0.1045</v>
       </c>
       <c r="C22" s="1">
@@ -1125,7 +1103,7 @@
       <c r="A23" s="1">
         <v>2.6720000000000002</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>0.1048</v>
       </c>
       <c r="C23" s="1">
@@ -1135,14 +1113,14 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2.2081</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>0.1036</v>
       </c>
       <c r="C24" s="1">
@@ -1156,7 +1134,7 @@
       <c r="A25" s="1">
         <v>2.2057000000000002</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>0.10680000000000001</v>
       </c>
       <c r="C25" s="1">
@@ -1164,13 +1142,22 @@
       </c>
       <c r="D25" s="1">
         <v>0</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2.3094000000000001</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>0.1056</v>
       </c>
       <c r="C26" s="1">
@@ -1178,13 +1165,35 @@
       </c>
       <c r="D26" s="1">
         <v>1.0004999999999999</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <f>ABS(I9-I10)</f>
+        <v>2.0413459999999994</v>
+      </c>
+      <c r="I26" s="10">
+        <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f>H26/I26</f>
+        <v>38.336390983500308</v>
+      </c>
+      <c r="K26" t="str">
+        <f>G26</f>
+        <v>Java</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2.2061999999999999</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>0.1119</v>
       </c>
       <c r="C27" s="1">
@@ -1192,13 +1201,35 @@
       </c>
       <c r="D27" s="1">
         <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <f>ABS(I9-I11)</f>
+        <v>2.2724779999999996</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27/I27</f>
+        <v>42.677040104618634</v>
+      </c>
+      <c r="K27" t="str">
+        <f>G27</f>
+        <v>Kotlin</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2.3445999999999998</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>0.1065</v>
       </c>
       <c r="C28" s="1">
@@ -1206,13 +1237,35 @@
       </c>
       <c r="D28" s="1">
         <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <f>ABS(I9-I12)</f>
+        <v>2.0530009999999992</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <f>H28/I28</f>
+        <v>38.555271387367512</v>
+      </c>
+      <c r="K28" t="str">
+        <f>G28</f>
+        <v>Go</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2.2058</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>0.1071</v>
       </c>
       <c r="C29" s="1">
@@ -1220,13 +1273,35 @@
       </c>
       <c r="D29" s="1">
         <v>0.99980000000000002</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>ABS(I10-I11)</f>
+        <v>0.23113199999999984</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J29" s="10">
+        <f>H29/I29</f>
+        <v>4.3406491211183162</v>
+      </c>
+      <c r="K29" t="str">
+        <f>G29</f>
+        <v>Kotlin</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2.2042999999999999</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>0.1071</v>
       </c>
       <c r="C30" s="1">
@@ -1234,13 +1309,31 @@
       </c>
       <c r="D30" s="1">
         <v>0.99950000000000006</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <f>ABS(I10-I12)</f>
+        <v>1.1654999999999804E-2</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J30" s="10">
+        <f>H30/I30</f>
+        <v>0.21888040386719779</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2.2673999999999999</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>0.1055</v>
       </c>
       <c r="C31" s="1">
@@ -1248,13 +1341,34 @@
       </c>
       <c r="D31" s="1">
         <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <f>ABS(I11-I12)</f>
+        <v>0.21947700000000003</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J31" s="10">
+        <f>H31/I31</f>
+        <v>4.1217687172511184</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2.0398000000000001</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>0.114</v>
       </c>
       <c r="C32" s="1">
@@ -1264,11 +1378,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2.0249000000000001</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>0.1202</v>
       </c>
       <c r="C33" s="1">
@@ -1277,12 +1391,18 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2.0565000000000002</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>0.1022</v>
       </c>
       <c r="C34" s="1">
@@ -1292,11 +1412,11 @@
         <v>1.0019</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2.1076999999999999</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>0.1086</v>
       </c>
       <c r="C35" s="1">
@@ -1305,12 +1425,15 @@
       <c r="D35" s="1">
         <v>0.99850000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2.0787</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>9.7699999999999995E-2</v>
       </c>
       <c r="C36" s="1">
@@ -1320,11 +1443,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2.3025000000000002</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>0.1171</v>
       </c>
       <c r="C37" s="1">
@@ -1334,11 +1457,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2.1242000000000001</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>0.1026</v>
       </c>
       <c r="C38" s="1">
@@ -1348,11 +1471,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2.3795000000000002</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>9.9599999999999994E-2</v>
       </c>
       <c r="C39" s="1">
@@ -1362,11 +1485,11 @@
         <v>1.0004999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2.1749000000000001</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>9.5200000000000007E-2</v>
       </c>
       <c r="C40" s="1">
@@ -1376,11 +1499,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.1337999999999999</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>9.8900000000000002E-2</v>
       </c>
       <c r="C41" s="1">
@@ -1390,11 +1513,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2.0430999999999999</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>9.9900000000000003E-2</v>
       </c>
       <c r="C42" s="1">
@@ -1404,11 +1527,11 @@
         <v>0.99970000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2.028</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>0.1041</v>
       </c>
       <c r="C43" s="1">
@@ -1418,11 +1541,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2.0259</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>9.9299999999999999E-2</v>
       </c>
       <c r="C44" s="1">
@@ -1432,11 +1555,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2.1856</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>0.1109</v>
       </c>
       <c r="C45" s="1">
@@ -1446,11 +1569,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2.1936</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>0.1318</v>
       </c>
       <c r="C46" s="1">
@@ -1460,11 +1583,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2.1541999999999999</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>0.11260000000000001</v>
       </c>
       <c r="C47" s="1">
@@ -1474,11 +1597,11 @@
         <v>1.0007999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2.1800999999999999</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>9.5100000000000004E-2</v>
       </c>
       <c r="C48" s="1">
@@ -1492,7 +1615,7 @@
       <c r="A49" s="1">
         <v>2.2999000000000001</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>9.9299999999999999E-2</v>
       </c>
       <c r="C49" s="1">
@@ -1506,7 +1629,7 @@
       <c r="A50" s="1">
         <v>2.7130000000000001</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>0.1022</v>
       </c>
       <c r="C50" s="1">
@@ -1520,7 +1643,7 @@
       <c r="A51" s="1">
         <v>2.3371</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>0.11360000000000001</v>
       </c>
       <c r="C51" s="1">
@@ -1534,7 +1657,7 @@
       <c r="A52" s="1">
         <v>2.1355</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>0.18559999999999999</v>
       </c>
       <c r="C52" s="1">
@@ -1548,7 +1671,7 @@
       <c r="A53" s="1">
         <v>2.2147000000000001</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>0.11600000000000001</v>
       </c>
       <c r="C53" s="1">
@@ -1562,7 +1685,7 @@
       <c r="A54" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>0.1174</v>
       </c>
       <c r="C54" s="1">
@@ -1576,7 +1699,7 @@
       <c r="A55" s="1">
         <v>2.4769000000000001</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>0.1226</v>
       </c>
       <c r="C55" s="1">
@@ -1590,7 +1713,7 @@
       <c r="A56" s="1">
         <v>2.1044</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>0.1172</v>
       </c>
       <c r="C56" s="1">
@@ -1604,7 +1727,7 @@
       <c r="A57" s="1">
         <v>2.2136</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="7">
         <v>0.1135</v>
       </c>
       <c r="C57" s="1">
@@ -1618,7 +1741,7 @@
       <c r="A58" s="1">
         <v>2.1315</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>0.12130000000000001</v>
       </c>
       <c r="C58" s="1">
@@ -1632,7 +1755,7 @@
       <c r="A59" s="1">
         <v>2.0949</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>0.115</v>
       </c>
       <c r="C59" s="1">
@@ -1646,7 +1769,7 @@
       <c r="A60" s="1">
         <v>2.6598999999999999</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>0.1173</v>
       </c>
       <c r="C60" s="1">
@@ -1660,7 +1783,7 @@
       <c r="A61" s="1">
         <v>2.4032</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>0.1227</v>
       </c>
       <c r="C61" s="1">
@@ -1674,7 +1797,7 @@
       <c r="A62" s="1">
         <v>2.1789999999999998</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>0.1236</v>
       </c>
       <c r="C62" s="1">
@@ -1688,7 +1811,7 @@
       <c r="A63" s="1">
         <v>2.0769000000000002</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>0.108</v>
       </c>
       <c r="C63" s="1">
@@ -1702,7 +1825,7 @@
       <c r="A64" s="1">
         <v>2.0781000000000001</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>0.11799999999999999</v>
       </c>
       <c r="C64" s="1">
@@ -1716,7 +1839,7 @@
       <c r="A65" s="1">
         <v>2.5478000000000001</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>0.1148</v>
       </c>
       <c r="C65" s="1">
@@ -1730,7 +1853,7 @@
       <c r="A66" s="1">
         <v>2.0707</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>0.1167</v>
       </c>
       <c r="C66" s="1">
@@ -1744,7 +1867,7 @@
       <c r="A67" s="1">
         <v>2.1084999999999998</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="7">
         <v>0.1084</v>
       </c>
       <c r="C67" s="1">
@@ -1758,7 +1881,7 @@
       <c r="A68" s="1">
         <v>2.0779999999999998</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="C68" s="1">
@@ -1772,7 +1895,7 @@
       <c r="A69" s="1">
         <v>2.0800999999999998</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>0.1125</v>
       </c>
       <c r="C69" s="1">
@@ -1786,7 +1909,7 @@
       <c r="A70" s="1">
         <v>2.0989</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>0.1212</v>
       </c>
       <c r="C70" s="1">
@@ -1800,7 +1923,7 @@
       <c r="A71" s="1">
         <v>2.2231000000000001</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>0.1116</v>
       </c>
       <c r="C71" s="1">
@@ -1814,7 +1937,7 @@
       <c r="A72" s="1">
         <v>3.4912000000000001</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>8.6900000000000005E-2</v>
       </c>
       <c r="C72" s="1">
@@ -1828,7 +1951,7 @@
       <c r="A73" s="1">
         <v>2.1974999999999998</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>8.9700000000000002E-2</v>
       </c>
       <c r="C73" s="1">
@@ -1842,7 +1965,7 @@
       <c r="A74" s="1">
         <v>2.3894000000000002</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="C74" s="1">
@@ -1856,7 +1979,7 @@
       <c r="A75" s="1">
         <v>2.6524999999999999</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>9.4299999999999995E-2</v>
       </c>
       <c r="C75" s="1">
@@ -1870,7 +1993,7 @@
       <c r="A76" s="1">
         <v>2.5306000000000002</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>9.6500000000000002E-2</v>
       </c>
       <c r="C76" s="1">
@@ -1884,7 +2007,7 @@
       <c r="A77" s="1">
         <v>2.5122</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>6.08E-2</v>
       </c>
       <c r="C77" s="1">
@@ -1898,7 +2021,7 @@
       <c r="A78" s="1">
         <v>3.9721000000000002</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="7">
         <v>7.5899999999999995E-2</v>
       </c>
       <c r="C78" s="1">
@@ -1912,7 +2035,7 @@
       <c r="A79" s="1">
         <v>2.2780999999999998</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="7">
         <v>0.10970000000000001</v>
       </c>
       <c r="C79" s="1">
@@ -1926,7 +2049,7 @@
       <c r="A80" s="1">
         <v>3.1776</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="7">
         <v>0.10150000000000001</v>
       </c>
       <c r="C80" s="1">
@@ -1940,7 +2063,7 @@
       <c r="A81" s="1">
         <v>2.1162999999999998</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>0.1051</v>
       </c>
       <c r="C81" s="1">
@@ -1954,7 +2077,7 @@
       <c r="A82" s="1">
         <v>2.3725000000000001</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>9.9199999999999997E-2</v>
       </c>
       <c r="C82" s="1">
@@ -1968,7 +2091,7 @@
       <c r="A83" s="1">
         <v>2.4516</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>0.104</v>
       </c>
       <c r="C83" s="1">
@@ -1982,7 +2105,7 @@
       <c r="A84" s="1">
         <v>2.7353999999999998</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="7">
         <v>0.104</v>
       </c>
       <c r="C84" s="1">
@@ -1996,7 +2119,7 @@
       <c r="A85" s="1">
         <v>2.3096999999999999</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="7">
         <v>0.10059999999999999</v>
       </c>
       <c r="C85" s="1">
@@ -2010,7 +2133,7 @@
       <c r="A86" s="1">
         <v>2.2892000000000001</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="7">
         <v>9.8699999999999996E-2</v>
       </c>
       <c r="C86" s="1">
@@ -2024,7 +2147,7 @@
       <c r="A87" s="1">
         <v>3.3536999999999999</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="7">
         <v>0.1022</v>
       </c>
       <c r="C87" s="1">
@@ -2038,7 +2161,7 @@
       <c r="A88" s="1">
         <v>2.4146999999999998</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="7">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="C88" s="1">
@@ -2052,7 +2175,7 @@
       <c r="A89" s="1">
         <v>3.3411</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <v>0.1007</v>
       </c>
       <c r="C89" s="1">
@@ -2066,7 +2189,7 @@
       <c r="A90" s="1">
         <v>2.6597</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <v>9.0300000000000005E-2</v>
       </c>
       <c r="C90" s="1">
@@ -2080,7 +2203,7 @@
       <c r="A91" s="1">
         <v>2.3222</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <v>0.1042</v>
       </c>
       <c r="C91" s="1">
@@ -2094,7 +2217,7 @@
       <c r="A92" s="1">
         <v>2.5701000000000001</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <v>0.1013</v>
       </c>
       <c r="C92" s="1">
@@ -2108,7 +2231,7 @@
       <c r="A93" s="1">
         <v>2.9278</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="7">
         <v>0.10100000000000001</v>
       </c>
       <c r="C93" s="1">
@@ -2122,7 +2245,7 @@
       <c r="A94" s="1">
         <v>2.6781000000000001</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="7">
         <v>0.11260000000000001</v>
       </c>
       <c r="C94" s="1">
@@ -2136,7 +2259,7 @@
       <c r="A95" s="1">
         <v>2.1787999999999998</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <v>9.8400000000000001E-2</v>
       </c>
       <c r="C95" s="1">
@@ -2150,7 +2273,7 @@
       <c r="A96" s="1">
         <v>2.2101000000000002</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="7">
         <v>0.1052</v>
       </c>
       <c r="C96" s="1">
@@ -2164,7 +2287,7 @@
       <c r="A97" s="1">
         <v>2.3409</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="7">
         <v>9.6699999999999994E-2</v>
       </c>
       <c r="C97" s="1">
@@ -2178,7 +2301,7 @@
       <c r="A98" s="1">
         <v>2.1063000000000001</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="7">
         <v>0.10589999999999999</v>
       </c>
       <c r="C98" s="1">
@@ -2192,7 +2315,7 @@
       <c r="A99" s="1">
         <v>2.1063000000000001</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="7">
         <v>9.7299999999999998E-2</v>
       </c>
       <c r="C99" s="1">
@@ -2206,7 +2329,7 @@
       <c r="A100" s="1">
         <v>2.5446</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="7">
         <v>0.1198</v>
       </c>
       <c r="C100" s="1">
@@ -2220,7 +2343,7 @@
       <c r="A101" s="1">
         <v>3.2734999999999999</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <v>0.1179</v>
       </c>
       <c r="C101" s="1">
@@ -2234,7 +2357,7 @@
       <c r="A102" s="1">
         <v>4.4928999999999997</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="7">
         <v>0.1173</v>
       </c>
       <c r="C102" s="1">
@@ -2257,22 +2380,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF2F9D6-3D75-4F96-A111-135C7887C39D}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:L20"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2288,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2305,7 +2429,7 @@
         <v>1.0001</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2749,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2779,6 +2903,15 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2793,6 +2926,28 @@
       <c r="D26" s="1">
         <v>0.99860000000000004</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <f>ABS(I9-I10)</f>
+        <v>2.3184619999999998</v>
+      </c>
+      <c r="I26" s="10">
+        <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f>H26/I26</f>
+        <v>58.246740335898366</v>
+      </c>
+      <c r="K26" t="str">
+        <f>G26</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2807,6 +2962,28 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <f>ABS(I9-I11)</f>
+        <v>2.3468109999999998</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27/I27</f>
+        <v>58.958952501455698</v>
+      </c>
+      <c r="K27" t="str">
+        <f>G27</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2821,6 +2998,28 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <f>ABS(I9-I12)</f>
+        <v>2.3175259999999995</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <f>H28/I28</f>
+        <v>58.223225200021908</v>
+      </c>
+      <c r="K28" t="str">
+        <f>G28</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2835,6 +3034,24 @@
       <c r="D29" s="1">
         <v>1.0004</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>ABS(I10-I11)</f>
+        <v>2.8348999999999847E-2</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J29" s="10">
+        <f>H29/I29</f>
+        <v>0.71221216555732814</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2849,6 +3066,24 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <f>ABS(I10-I12)</f>
+        <v>9.3600000000010342E-4</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J30" s="10">
+        <f>H30/I30</f>
+        <v>2.3515135876459006E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2863,6 +3098,25 @@
       <c r="D31" s="1">
         <v>1.0002</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <f>ABS(I11-I12)</f>
+        <v>2.928499999999995E-2</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J31" s="10">
+        <f>H31/I31</f>
+        <v>0.73572730143378706</v>
+      </c>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -2878,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2.3975</v>
       </c>
@@ -2891,8 +3145,14 @@
       <c r="D33" s="1">
         <v>0.99829999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2.5236999999999998</v>
       </c>
@@ -2906,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2.448</v>
       </c>
@@ -2919,8 +3179,11 @@
       <c r="D35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2.4432</v>
       </c>
@@ -2934,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2.6080999999999999</v>
       </c>
@@ -2948,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2.4685999999999999</v>
       </c>
@@ -2962,7 +3225,7 @@
         <v>0.99880000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2.3993000000000002</v>
       </c>
@@ -2976,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2.3921000000000001</v>
       </c>
@@ -2990,7 +3253,7 @@
         <v>1.0008999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.3831000000000002</v>
       </c>
@@ -3004,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2.3797999999999999</v>
       </c>
@@ -3018,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2.8677999999999999</v>
       </c>
@@ -3032,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2.4988999999999999</v>
       </c>
@@ -3046,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2.4900000000000002</v>
       </c>
@@ -3060,7 +3323,7 @@
         <v>1.0033000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2.4811000000000001</v>
       </c>
@@ -3074,7 +3337,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2.484</v>
       </c>
@@ -3088,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2.6629</v>
       </c>
@@ -3871,8 +4134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42FA099-8E83-4C9E-B857-86208A6A5ED7}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:L20"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,12 +4144,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3902,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3919,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4363,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4393,6 +4656,15 @@
       <c r="D25" s="1">
         <v>0.99909999999999999</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -4407,6 +4679,28 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <f>ABS(I9-I10)</f>
+        <v>1.2724479999999998</v>
+      </c>
+      <c r="I26" s="10">
+        <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f>H26/I26</f>
+        <v>29.528189810378869</v>
+      </c>
+      <c r="K26" t="str">
+        <f>G26</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -4421,6 +4715,28 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <f>ABS(I9-I11)</f>
+        <v>1.4685219999999997</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27/I27</f>
+        <v>34.078246306895991</v>
+      </c>
+      <c r="K27" t="str">
+        <f>G27</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -4435,6 +4751,28 @@
       <c r="D28" s="1">
         <v>1.0004</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <f>ABS(I9-I12)</f>
+        <v>1.5749809999999997</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <f>H28/I28</f>
+        <v>36.548713908733653</v>
+      </c>
+      <c r="K28" t="str">
+        <f>G28</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -4449,6 +4787,28 @@
       <c r="D29" s="1">
         <v>0</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>ABS(I10-I11)</f>
+        <v>0.19607399999999969</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J29" s="10">
+        <f>H29/I29</f>
+        <v>4.5500564965171213</v>
+      </c>
+      <c r="K29" t="str">
+        <f>G29</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -4463,6 +4823,28 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <f>ABS(I10-I12)</f>
+        <v>0.30253299999999977</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J30" s="10">
+        <f>H30/I30</f>
+        <v>7.0205240983547812</v>
+      </c>
+      <c r="K30" t="str">
+        <f>G30</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -4477,6 +4859,25 @@
       <c r="D31" s="1">
         <v>1.0031000000000001</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <f>ABS(I11-I12)</f>
+        <v>0.10645900000000008</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J31" s="10">
+        <f>H31/I31</f>
+        <v>2.4704676018376599</v>
+      </c>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -4492,7 +4893,7 @@
         <v>0.52810000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2.4811000000000001</v>
       </c>
@@ -4505,8 +4906,14 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1.5745</v>
       </c>
@@ -4520,7 +4927,7 @@
         <v>0.52370000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2.4121000000000001</v>
       </c>
@@ -4533,8 +4940,11 @@
       <c r="D35" s="1">
         <v>0.53839999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1.6556</v>
       </c>
@@ -4548,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1.9850000000000001</v>
       </c>
@@ -4562,7 +4972,7 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1.6456</v>
       </c>
@@ -4576,7 +4986,7 @@
         <v>0.50819999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1.8669</v>
       </c>
@@ -4590,7 +5000,7 @@
         <v>0.53220000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.5508</v>
       </c>
@@ -4604,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.1823999999999999</v>
       </c>
@@ -4618,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1.8956</v>
       </c>
@@ -4632,7 +5042,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.881</v>
       </c>
@@ -4646,7 +5056,7 @@
         <v>0.53149999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2.0968</v>
       </c>
@@ -4660,7 +5070,7 @@
         <v>0.54110000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1.7679</v>
       </c>
@@ -4674,7 +5084,7 @@
         <v>0.52180000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1.6633</v>
       </c>
@@ -4688,7 +5098,7 @@
         <v>0.52370000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2.0701000000000001</v>
       </c>
@@ -4702,7 +5112,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1.7588999999999999</v>
       </c>
@@ -5484,8 +5894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A3E2EE-870A-4BF2-932E-2200EE9DCA7A}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5494,12 +5904,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5515,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5532,7 +5942,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5976,7 +6386,7 @@
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6006,6 +6416,15 @@
       <c r="D25" s="1">
         <v>28</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -6020,6 +6439,28 @@
       <c r="D26" s="1">
         <v>29</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <f>ABS(I9-I10)</f>
+        <v>127.87081000000002</v>
+      </c>
+      <c r="I26" s="10">
+        <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J26" s="10">
+        <f>H26/I26</f>
+        <v>79.248395260248131</v>
+      </c>
+      <c r="K26" t="str">
+        <f>G26</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -6034,6 +6475,28 @@
       <c r="D27" s="1">
         <v>28</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <f>ABS(I9-I11)</f>
+        <v>123.81652500000001</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27/I27</f>
+        <v>76.735737522507236</v>
+      </c>
+      <c r="K27" t="str">
+        <f>G27</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -6048,6 +6511,28 @@
       <c r="D28" s="1">
         <v>28</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <f>ABS(I9-I12)</f>
+        <v>106.03081000000002</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J28" s="10">
+        <f>H28/I28</f>
+        <v>65.71297656317553</v>
+      </c>
+      <c r="K28" t="str">
+        <f>G28</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -6062,6 +6547,24 @@
       <c r="D29" s="1">
         <v>29</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>ABS(I10-I11)</f>
+        <v>4.0542849999999993</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J29" s="10">
+        <f>H29/I29</f>
+        <v>2.5126577377408887</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -6076,6 +6579,28 @@
       <c r="D30" s="1">
         <v>33</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <f>ABS(I10-I12)</f>
+        <v>21.84</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J30" s="10">
+        <f>H30/I30</f>
+        <v>13.535418697072608</v>
+      </c>
+      <c r="K30" t="str">
+        <f>F30</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -6090,6 +6615,28 @@
       <c r="D31" s="1">
         <v>28</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <f>ABS(I11-I12)</f>
+        <v>17.785715000000003</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J31" s="10">
+        <f>H31/I31</f>
+        <v>11.022760959331722</v>
+      </c>
+      <c r="K31" s="12" t="str">
+        <f>F31</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -6105,7 +6652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>139.05779999999999</v>
       </c>
@@ -6118,8 +6665,14 @@
       <c r="D33" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>106.233</v>
       </c>
@@ -6133,7 +6686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>120.7762</v>
       </c>
@@ -6146,8 +6699,11 @@
       <c r="D35" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>132.7526</v>
       </c>
@@ -6161,7 +6717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>128.42330000000001</v>
       </c>
@@ -6175,7 +6731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>124.6825</v>
       </c>
@@ -6189,7 +6745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>136.6352</v>
       </c>
@@ -6203,7 +6759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>133.49969999999999</v>
       </c>
@@ -6217,7 +6773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>81.965699999999998</v>
       </c>
@@ -6231,7 +6787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>81.244500000000002</v>
       </c>
@@ -6245,7 +6801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>80.907300000000006</v>
       </c>
@@ -6259,7 +6815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>137.82570000000001</v>
       </c>
@@ -6273,7 +6829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>140.3263</v>
       </c>
@@ -6287,7 +6843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>124.36750000000001</v>
       </c>
@@ -6301,7 +6857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>116.81189999999999</v>
       </c>
@@ -6315,7 +6871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>127.5181</v>
       </c>
@@ -7097,22 +7653,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D70CC9B-CA69-4FE4-9DA5-007A038F9C9C}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7128,7 +7685,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7145,7 +7702,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7589,7 +8146,7 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -7619,6 +8176,15 @@
       <c r="D25" s="1">
         <v>27</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -7633,6 +8199,28 @@
       <c r="D26" s="1">
         <v>28</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <f>ABS(I9-I10)</f>
+        <v>150.91057299999997</v>
+      </c>
+      <c r="I26" s="10">
+        <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J26" s="10">
+        <f>H26/I26</f>
+        <v>76.410970178038895</v>
+      </c>
+      <c r="K26" t="str">
+        <f>G26</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -7647,6 +8235,28 @@
       <c r="D27" s="1">
         <v>29</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <f>ABS(I9-I11)</f>
+        <v>142.05337499999996</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27/I27</f>
+        <v>71.92628047880234</v>
+      </c>
+      <c r="K27" t="str">
+        <f>G27</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -7661,6 +8271,28 @@
       <c r="D28" s="1">
         <v>28</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <f>ABS(I9-I12)</f>
+        <v>143.03057299999998</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J28" s="10">
+        <f>H28/I28</f>
+        <v>72.421067860174489</v>
+      </c>
+      <c r="K28" t="str">
+        <f>G28</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -7675,6 +8307,28 @@
       <c r="D29" s="1">
         <v>28</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>ABS(I10-I11)</f>
+        <v>8.8571980000000146</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J29" s="10">
+        <f>H29/I29</f>
+        <v>4.4846896992365606</v>
+      </c>
+      <c r="K29" t="str">
+        <f>F29</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -7689,6 +8343,28 @@
       <c r="D30" s="1">
         <v>31</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <f>ABS(I10-I12)</f>
+        <v>7.8800000000000026</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J30" s="10">
+        <f>H30/I30</f>
+        <v>3.9899023178644137</v>
+      </c>
+      <c r="K30" t="str">
+        <f>F30</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -7703,6 +8379,25 @@
       <c r="D31" s="1">
         <v>28</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <f>ABS(I11-I12)</f>
+        <v>0.977198000000012</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J31" s="10">
+        <f>H31/I31</f>
+        <v>0.49478738137214673</v>
+      </c>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -7718,7 +8413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>141.12200000000001</v>
       </c>
@@ -7731,8 +8426,14 @@
       <c r="D33" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>134.89179999999999</v>
       </c>
@@ -7746,7 +8447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>147.3485</v>
       </c>
@@ -7759,8 +8460,11 @@
       <c r="D35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>196.61240000000001</v>
       </c>
@@ -7774,7 +8478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>170.17949999999999</v>
       </c>
@@ -7788,7 +8492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>168.9812</v>
       </c>
@@ -7802,7 +8506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>194.87280000000001</v>
       </c>
@@ -7816,7 +8520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>199.06190000000001</v>
       </c>
@@ -7830,7 +8534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>172.3347</v>
       </c>
@@ -7844,7 +8548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>186.4599</v>
       </c>
@@ -7858,7 +8562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>168.68010000000001</v>
       </c>
@@ -7872,7 +8576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>150.00290000000001</v>
       </c>
@@ -7886,7 +8590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>181.4958</v>
       </c>
@@ -7900,7 +8604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>116.6798</v>
       </c>
@@ -7914,7 +8618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>120.61239999999999</v>
       </c>
@@ -7928,7 +8632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>119.0184</v>
       </c>
@@ -8710,8 +9414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCC2CDA-0CFE-4400-81E1-4B96BD0FC0C0}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8720,12 +9424,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8741,7 +9445,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -8758,7 +9462,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -9202,7 +9906,7 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -9232,6 +9936,15 @@
       <c r="D25" s="1">
         <v>27</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -9246,6 +9959,28 @@
       <c r="D26" s="1">
         <v>26</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <f>ABS(I9-I10)</f>
+        <v>150.37656099999998</v>
+      </c>
+      <c r="I26" s="10">
+        <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J26" s="10">
+        <f>H26/I26</f>
+        <v>94.916401137601497</v>
+      </c>
+      <c r="K26" t="str">
+        <f>G26</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -9260,6 +9995,28 @@
       <c r="D27" s="1">
         <v>25</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <f>ABS(I9-I11)</f>
+        <v>155.78242599999996</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27/I27</f>
+        <v>98.328536961320168</v>
+      </c>
+      <c r="K27" t="str">
+        <f>G27</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -9274,6 +10031,28 @@
       <c r="D28" s="1">
         <v>25</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <f>ABS(I9-I12)</f>
+        <v>157.89656099999996</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J28" s="10">
+        <f>H28/I28</f>
+        <v>99.662960919313491</v>
+      </c>
+      <c r="K28" t="str">
+        <f>G28</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -9288,6 +10067,24 @@
       <c r="D29" s="1">
         <v>25</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>ABS(I10-I11)</f>
+        <v>5.4058649999999915</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J29" s="10">
+        <f>H29/I29</f>
+        <v>3.4121358237186934</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -9302,6 +10099,28 @@
       <c r="D30" s="1">
         <v>25</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <f>ABS(I10-I12)</f>
+        <v>7.519999999999996</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J30" s="10">
+        <f>H30/I30</f>
+        <v>4.7465597817120111</v>
+      </c>
+      <c r="K30" t="str">
+        <f>G30</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -9316,6 +10135,25 @@
       <c r="D31" s="1">
         <v>28</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <f>ABS(I11-I12)</f>
+        <v>2.1141350000000045</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J31" s="10">
+        <f>H31/I31</f>
+        <v>1.3344239579933177</v>
+      </c>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -9331,7 +10169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>149.28659999999999</v>
       </c>
@@ -9344,8 +10182,14 @@
       <c r="D33" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>186.80170000000001</v>
       </c>
@@ -9359,7 +10203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>153.23490000000001</v>
       </c>
@@ -9372,8 +10216,11 @@
       <c r="D35" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>165.92699999999999</v>
       </c>
@@ -9387,7 +10234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>218.59559999999999</v>
       </c>
@@ -9401,7 +10248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>202.0368</v>
       </c>
@@ -9415,7 +10262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>145.06389999999999</v>
       </c>
@@ -9429,7 +10276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>161.88550000000001</v>
       </c>
@@ -9443,7 +10290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>192.27940000000001</v>
       </c>
@@ -9457,7 +10304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>170.0658</v>
       </c>
@@ -9471,7 +10318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>178.9913</v>
       </c>
@@ -9485,7 +10332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>202.6095</v>
       </c>
@@ -9499,7 +10346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>212.01650000000001</v>
       </c>
@@ -9513,7 +10360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>222.65620000000001</v>
       </c>
@@ -9527,7 +10374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>187.06</v>
       </c>
@@ -9541,7 +10388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>134.62809999999999</v>
       </c>
@@ -10323,8 +11170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57BB21E-B82D-46BA-9B01-A5A5AB8FCBBF}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:L20"/>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10333,12 +11180,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10354,7 +11201,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -10371,7 +11218,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -10815,7 +11662,7 @@
         <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -10845,6 +11692,15 @@
       <c r="D25" s="1">
         <v>111</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -10859,6 +11715,28 @@
       <c r="D26" s="1">
         <v>111</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <f>ABS(I9-I10)</f>
+        <v>414.07286300000004</v>
+      </c>
+      <c r="I26" s="10">
+        <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J26" s="10">
+        <f>H26/I26</f>
+        <v>112.04666985717591</v>
+      </c>
+      <c r="K26" t="str">
+        <f>G26</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -10873,6 +11751,28 @@
       <c r="D27" s="1">
         <v>112</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <f>ABS(I9-I11)</f>
+        <v>400.00703700000003</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27/I27</f>
+        <v>108.24050649097028</v>
+      </c>
+      <c r="K27" t="str">
+        <f>G27</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -10887,6 +11787,28 @@
       <c r="D28" s="1">
         <v>116</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <f>ABS(I9-I12)</f>
+        <v>327.19286300000005</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J28" s="10">
+        <f>H28/I28</f>
+        <v>88.53724543688628</v>
+      </c>
+      <c r="K28" t="str">
+        <f>G28</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -10901,6 +11823,28 @@
       <c r="D29" s="1">
         <v>111</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>ABS(I10-I11)</f>
+        <v>14.065826000000008</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J29" s="10">
+        <f>H29/I29</f>
+        <v>3.8061633662056282</v>
+      </c>
+      <c r="K29" t="str">
+        <f>F29</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -10915,6 +11859,28 @@
       <c r="D30" s="1">
         <v>111</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <f>ABS(I10-I12)</f>
+        <v>86.88</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J30" s="10">
+        <f>H30/I30</f>
+        <v>23.509424420289626</v>
+      </c>
+      <c r="K30" t="str">
+        <f>F30</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -10929,6 +11895,28 @@
       <c r="D31" s="1">
         <v>111</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <f>ABS(I11-I12)</f>
+        <v>72.81417399999998</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J31" s="10">
+        <f>H31/I31</f>
+        <v>19.703261054083999</v>
+      </c>
+      <c r="K31" s="12" t="str">
+        <f>F31</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -10944,7 +11932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>443.84190000000001</v>
       </c>
@@ -10957,8 +11945,14 @@
       <c r="D33" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>401.21600000000001</v>
       </c>
@@ -10972,7 +11966,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>424.64249999999998</v>
       </c>
@@ -10985,8 +11979,11 @@
       <c r="D35" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>316.21319999999997</v>
       </c>
@@ -11000,7 +11997,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>298.89519999999999</v>
       </c>
@@ -11014,7 +12011,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>498.79129999999998</v>
       </c>
@@ -11028,7 +12025,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>478.2749</v>
       </c>
@@ -11042,7 +12039,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>374.04649999999998</v>
       </c>
@@ -11056,7 +12053,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>419.92649999999998</v>
       </c>
@@ -11070,7 +12067,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>290.34679999999997</v>
       </c>
@@ -11084,7 +12081,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>436.89600000000002</v>
       </c>
@@ -11098,7 +12095,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>291.07780000000002</v>
       </c>
@@ -11112,7 +12109,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>505.0634</v>
       </c>
@@ -11126,7 +12123,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>421.15710000000001</v>
       </c>
@@ -11140,7 +12137,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>470.82089999999999</v>
       </c>
@@ -11154,7 +12151,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>470.50850000000003</v>
       </c>
@@ -11936,8 +12933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC276B8-A877-474B-9202-B43E024633C1}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:L20"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11946,12 +12943,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11967,7 +12964,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -11984,7 +12981,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -12428,7 +13425,7 @@
         <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -12458,6 +13455,15 @@
       <c r="D25" s="1">
         <v>111</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -12472,6 +13478,28 @@
       <c r="D26" s="1">
         <v>112</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <f>ABS(I9-I10)</f>
+        <v>526.27964200000019</v>
+      </c>
+      <c r="I26" s="10">
+        <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J26" s="10">
+        <f>H26/I26</f>
+        <v>124.45250389719197</v>
+      </c>
+      <c r="K26" t="str">
+        <f>G26</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -12486,6 +13514,28 @@
       <c r="D27" s="1">
         <v>112</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <f>ABS(I9-I11)</f>
+        <v>486.95858700000019</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27/I27</f>
+        <v>115.15401814913562</v>
+      </c>
+      <c r="K27" t="str">
+        <f>G27</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -12500,6 +13550,28 @@
       <c r="D28" s="1">
         <v>112</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <f>ABS(I9-I12)</f>
+        <v>491.00964200000016</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J28" s="10">
+        <f>H28/I28</f>
+        <v>116.11199542573952</v>
+      </c>
+      <c r="K28" t="str">
+        <f>G28</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -12514,6 +13586,28 @@
       <c r="D29" s="1">
         <v>112</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>ABS(I10-I11)</f>
+        <v>39.321054999999959</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J29" s="10">
+        <f>H29/I29</f>
+        <v>9.2984857480563399</v>
+      </c>
+      <c r="K29" t="str">
+        <f>F29</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -12528,6 +13622,28 @@
       <c r="D30" s="1">
         <v>113</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <f>ABS(I10-I12)</f>
+        <v>35.269999999999996</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J30" s="10">
+        <f>H30/I30</f>
+        <v>8.3405084714524431</v>
+      </c>
+      <c r="K30" t="str">
+        <f>F30</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -12542,6 +13658,25 @@
       <c r="D31" s="1">
         <v>112</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <f>ABS(I11-I12)</f>
+        <v>4.0510549999999625</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J31" s="10">
+        <f>H31/I31</f>
+        <v>0.95797727660389753</v>
+      </c>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -12557,7 +13692,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>530.81410000000005</v>
       </c>
@@ -12570,8 +13705,14 @@
       <c r="D33" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>665.9298</v>
       </c>
@@ -12585,7 +13726,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>490.36130000000003</v>
       </c>
@@ -12598,8 +13739,11 @@
       <c r="D35" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>650.09190000000001</v>
       </c>
@@ -12613,7 +13757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>427.81389999999999</v>
       </c>
@@ -12627,7 +13771,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>593.2432</v>
       </c>
@@ -12641,7 +13785,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>584.51530000000002</v>
       </c>
@@ -12655,7 +13799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>689.55070000000001</v>
       </c>
@@ -12669,7 +13813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>669.12750000000005</v>
       </c>
@@ -12683,7 +13827,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>737.26149999999996</v>
       </c>
@@ -12697,7 +13841,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>575.28089999999997</v>
       </c>
@@ -12711,7 +13855,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>532.1499</v>
       </c>
@@ -12725,7 +13869,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>660.40620000000001</v>
       </c>
@@ -12739,7 +13883,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>756.69050000000004</v>
       </c>
@@ -12753,7 +13897,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>518.44669999999996</v>
       </c>
@@ -12767,7 +13911,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>651.60090000000002</v>
       </c>
@@ -13549,22 +14693,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26612B0A-82F6-4797-80C1-10269757BB1E}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13580,7 +14728,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -13597,7 +14745,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -14041,7 +15189,7 @@
         <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -14071,6 +15219,15 @@
       <c r="D25" s="1">
         <v>109</v>
       </c>
+      <c r="H25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -14085,6 +15242,28 @@
       <c r="D26" s="1">
         <v>109</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <f>ABS(I9-I10)</f>
+        <v>637.62830200000019</v>
+      </c>
+      <c r="I26" s="10">
+        <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J26" s="10">
+        <f>H26/I26</f>
+        <v>124.95486088523324</v>
+      </c>
+      <c r="K26" t="str">
+        <f>G26</f>
+        <v>Java</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -14099,6 +15278,28 @@
       <c r="D27" s="1">
         <v>110</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10">
+        <f>ABS(I9-I11)</f>
+        <v>691.53143600000021</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J27" s="10">
+        <f>H27/I27</f>
+        <v>135.51816020730143</v>
+      </c>
+      <c r="K27" t="str">
+        <f>G27</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -14113,6 +15314,28 @@
       <c r="D28" s="1">
         <v>111</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <f>ABS(I9-I12)</f>
+        <v>702.70830200000023</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J28" s="10">
+        <f>H28/I28</f>
+        <v>137.70847034846403</v>
+      </c>
+      <c r="K28" t="str">
+        <f>G28</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -14127,6 +15350,28 @@
       <c r="D29" s="1">
         <v>110</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>ABS(I10-I11)</f>
+        <v>53.903133999999994</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J29" s="10">
+        <f>H29/I29</f>
+        <v>10.563299322068179</v>
+      </c>
+      <c r="K29" t="str">
+        <f>G29</f>
+        <v>Kotlin</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -14141,6 +15386,28 @@
       <c r="D30" s="1">
         <v>109</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <f>ABS(I10-I12)</f>
+        <v>65.079999999999984</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J30" s="10">
+        <f>H30/I30</f>
+        <v>12.753609463230783</v>
+      </c>
+      <c r="K30" t="str">
+        <f>G30</f>
+        <v>Go</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -14155,6 +15422,25 @@
       <c r="D31" s="1">
         <v>107</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="10">
+        <f>ABS(I11-I12)</f>
+        <v>11.17686599999999</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J31" s="10">
+        <f>H31/I31</f>
+        <v>2.1903101411626045</v>
+      </c>
+      <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -14170,7 +15456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>671.33619999999996</v>
       </c>
@@ -14183,8 +15469,14 @@
       <c r="D33" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>627.17070000000001</v>
       </c>
@@ -14198,7 +15490,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>855.40480000000002</v>
       </c>
@@ -14211,8 +15503,11 @@
       <c r="D35" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>814.28009999999995</v>
       </c>
@@ -14226,7 +15521,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>844.19309999999996</v>
       </c>
@@ -14240,7 +15535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>830.79420000000005</v>
       </c>
@@ -14254,7 +15549,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>782.80380000000002</v>
       </c>
@@ -14268,7 +15563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>946.66160000000002</v>
       </c>
@@ -14282,7 +15577,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>763.15779999999995</v>
       </c>
@@ -14296,7 +15591,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>729.10889999999995</v>
       </c>
@@ -14310,7 +15605,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>890.51310000000001</v>
       </c>
@@ -14324,7 +15619,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1051.9580000000001</v>
       </c>
@@ -14338,7 +15633,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>712.75310000000002</v>
       </c>
@@ -14352,7 +15647,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>728.00909999999999</v>
       </c>
@@ -14366,7 +15661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>675.33609999999999</v>
       </c>
@@ -14380,7 +15675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>721.53309999999999</v>
       </c>
@@ -15155,5 +16450,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Anova.xlsx
+++ b/Anova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahp-\OneDrive\Escritorio\Software\ProyectoIntegrador\Nothing-but-speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42935CFE-9883-415C-8753-649261C1AC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2745C5A1-C231-4331-895F-255E5AA97A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="1440" windowWidth="17730" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9330" yWindow="1440" windowWidth="17730" windowHeight="11805" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anova 1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="63">
   <si>
     <t>C#</t>
   </si>
@@ -178,25 +178,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">H1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 10000 elementos ordenados previamente de forma aleatoria.</t>
-    </r>
-  </si>
-  <si>
     <t>Con base en el análisis anterior, se puede concluir que Java presenta diferencias significativas con respecto a los demás lenguajes siendo el lenguaje que obtuvo el menor tiempo de ejecución en promedio.</t>
-  </si>
-  <si>
-    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presetan diferencias significativas con respecto a los demás lenguajes, siendo éstos 2 los que tuvieron menores tiempos de ejecución en promedio.</t>
   </si>
   <si>
     <t>Con base en el análisis anterior, se puede concluir que todos los lenguajes presetan diferencias significativas entre si, siendo Java el que tuvo menores tiempos de ejecución en promedio.</t>
@@ -215,6 +197,308 @@
   </si>
   <si>
     <t>Con base en el analisis anterior, se puede concluir que Kotlin presenta diferencias significativas con respecto a los demás lenguajes, siendo el lenguaje que tuvo el menor tiempo de ejecución en promedio.</t>
+  </si>
+  <si>
+    <t>Como resultado del test se rechaza la hipótesis nula, se acepta la hipótesis alternativa y se concluye que existen diferencias significativas entre por lo menos un par de medias de los tiempos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 10000 elementos ordenados previamente de forma aleatoria.</t>
+    </r>
+  </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que C# evidencia diferencias significativas con respecto a los demás lenguajes, siendo el que mayor tiempo de ejecución obtuvo. Por otro lado, Go presentó diferencias con respecto a Java mostrando ser levemente más rapido, sin embargo con Kotlin no obtuvo ninguna diferencia significativa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 500 elementos ordenados previamente de forma ascendente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 500 elementos ordenados previamente de forma descedente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 10000 elementos ordenados previamente de forma ascendente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 10000 elementos ordenados previamente de forma descendente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 500 elementos ordenados previamente de forma aleatoria.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 500 elementos ordenados previamente de forma aleatoria.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 5000 elementos ordenados previamente de forma aleatoria.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 5000 elementos ordenados previamente de forma aleatoria.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 5000 elementos ordenados previamente de forma ascendente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 5000 elementos ordenados previamente de forma ascendente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 5000 elementos ordenados previamente de forma descendente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 5000 elementos ordenados previamente de forma descendente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 10000 elementos ordenados previamente de forma ascendente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento entre los diferentes lenguajes de programación en un arreglo de 10000 elementos ordenados previamente de forma descendiente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">H1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 10000 elementos ordenados previamente de forma decendiente.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -250,18 +534,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -323,9 +601,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -333,7 +608,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,12 +909,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -652,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -669,7 +947,7 @@
         <v>0.50790000000000002</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1143,13 +1421,13 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1172,16 +1450,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>2.0413459999999994</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>5.3248257011949275E-2</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>38.336390983500308</v>
       </c>
       <c r="K26" t="str">
@@ -1208,16 +1486,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>2.2724779999999996</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>5.3248257011949275E-2</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>42.677040104618634</v>
       </c>
       <c r="K27" t="str">
@@ -1244,16 +1522,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>2.0530009999999992</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>5.3248257011949275E-2</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>38.555271387367512</v>
       </c>
       <c r="K28" t="str">
@@ -1280,16 +1558,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>0.23113199999999984</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>5.3248257011949275E-2</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>4.3406491211183162</v>
       </c>
       <c r="K29" t="str">
@@ -1316,16 +1594,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>1.1654999999999804E-2</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>5.3248257011949275E-2</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>0.21888040386719779</v>
       </c>
     </row>
@@ -1348,19 +1626,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>0.21947700000000003</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>5.3248257011949275E-2</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>4.1217687172511184</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1391,7 +1669,7 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -1426,7 +1704,7 @@
         <v>0.99850000000000005</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2380,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF2F9D6-3D75-4F96-A111-135C7887C39D}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,12 +2669,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2412,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2429,7 +2707,7 @@
         <v>1.0001</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2903,13 +3181,13 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2932,16 +3210,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>2.3184619999999998</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>3.9804150182994803E-2</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>58.246740335898366</v>
       </c>
       <c r="K26" t="str">
@@ -2968,16 +3246,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>2.3468109999999998</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>3.9804150182994803E-2</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>58.958952501455698</v>
       </c>
       <c r="K27" t="str">
@@ -3004,16 +3282,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>2.3175259999999995</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>3.9804150182994803E-2</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>58.223225200021908</v>
       </c>
       <c r="K28" t="str">
@@ -3040,16 +3318,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>2.8348999999999847E-2</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>3.9804150182994803E-2</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>0.71221216555732814</v>
       </c>
     </row>
@@ -3072,16 +3350,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>9.3600000000010342E-4</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>3.9804150182994803E-2</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>2.3515135876459006E-2</v>
       </c>
     </row>
@@ -3104,19 +3382,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>2.928499999999995E-2</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>3.9804150182994803E-2</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>0.73572730143378706</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -3145,7 +3423,7 @@
       <c r="D33" s="1">
         <v>0.99829999999999997</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -3180,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -4134,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42FA099-8E83-4C9E-B857-86208A6A5ED7}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,12 +4422,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4165,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4182,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4656,13 +4934,13 @@
       <c r="D25" s="1">
         <v>0.99909999999999999</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4685,16 +4963,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>1.2724479999999998</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>4.3092651739618217E-2</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>29.528189810378869</v>
       </c>
       <c r="K26" t="str">
@@ -4721,16 +4999,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>1.4685219999999997</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>4.3092651739618217E-2</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>34.078246306895991</v>
       </c>
       <c r="K27" t="str">
@@ -4757,16 +5035,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>1.5749809999999997</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>4.3092651739618217E-2</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>36.548713908733653</v>
       </c>
       <c r="K28" t="str">
@@ -4793,16 +5071,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>0.19607399999999969</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>4.3092651739618217E-2</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>4.5500564965171213</v>
       </c>
       <c r="K29" t="str">
@@ -4829,16 +5107,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>0.30253299999999977</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>4.3092651739618217E-2</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>7.0205240983547812</v>
       </c>
       <c r="K30" t="str">
@@ -4865,19 +5143,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>0.10645900000000008</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>4.3092651739618217E-2</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>2.4704676018376599</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -4906,7 +5184,7 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -4941,7 +5219,7 @@
         <v>0.53839999999999999</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5894,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A3E2EE-870A-4BF2-932E-2200EE9DCA7A}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5904,12 +6182,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5925,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5942,7 +6220,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6416,13 +6694,13 @@
       <c r="D25" s="1">
         <v>28</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6445,16 +6723,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>127.87081000000002</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.6135444709016262</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>79.248395260248131</v>
       </c>
       <c r="K26" t="str">
@@ -6481,16 +6759,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>123.81652500000001</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.6135444709016262</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>76.735737522507236</v>
       </c>
       <c r="K27" t="str">
@@ -6517,16 +6795,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>106.03081000000002</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>1.6135444709016262</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>65.71297656317553</v>
       </c>
       <c r="K28" t="str">
@@ -6553,16 +6831,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>4.0542849999999993</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>1.6135444709016262</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>2.5126577377408887</v>
       </c>
     </row>
@@ -6585,16 +6863,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>21.84</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>1.6135444709016262</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>13.535418697072608</v>
       </c>
       <c r="K30" t="str">
@@ -6621,19 +6899,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>17.785715000000003</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>1.6135444709016262</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>11.022760959331722</v>
       </c>
-      <c r="K31" s="12" t="str">
+      <c r="K31" s="11" t="str">
         <f>F31</f>
         <v>Kotlin</v>
       </c>
@@ -6665,7 +6943,7 @@
       <c r="D33" s="1">
         <v>28</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -6700,7 +6978,7 @@
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -7653,8 +7931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D70CC9B-CA69-4FE4-9DA5-007A038F9C9C}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7664,12 +7942,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7685,7 +7963,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7702,7 +7980,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -8176,13 +8454,13 @@
       <c r="D25" s="1">
         <v>27</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8205,16 +8483,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>150.91057299999997</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.9749856944411999</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>76.410970178038895</v>
       </c>
       <c r="K26" t="str">
@@ -8241,16 +8519,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>142.05337499999996</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.9749856944411999</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>71.92628047880234</v>
       </c>
       <c r="K27" t="str">
@@ -8277,16 +8555,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>143.03057299999998</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>1.9749856944411999</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>72.421067860174489</v>
       </c>
       <c r="K28" t="str">
@@ -8313,16 +8591,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>8.8571980000000146</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>1.9749856944411999</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>4.4846896992365606</v>
       </c>
       <c r="K29" t="str">
@@ -8349,16 +8627,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>7.8800000000000026</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>1.9749856944411999</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>3.9899023178644137</v>
       </c>
       <c r="K30" t="str">
@@ -8385,19 +8663,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>0.977198000000012</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>1.9749856944411999</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>0.49478738137214673</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -8426,7 +8704,7 @@
       <c r="D33" s="1">
         <v>28</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -8461,7 +8739,7 @@
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -9414,8 +9692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCC2CDA-0CFE-4400-81E1-4B96BD0FC0C0}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9424,12 +9702,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9445,7 +9723,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9462,7 +9740,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -9906,7 +10184,7 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -9936,13 +10214,13 @@
       <c r="D25" s="1">
         <v>27</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9965,16 +10243,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>150.37656099999998</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.5843053381469574</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>94.916401137601497</v>
       </c>
       <c r="K26" t="str">
@@ -10001,16 +10279,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>155.78242599999996</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.5843053381469574</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>98.328536961320168</v>
       </c>
       <c r="K27" t="str">
@@ -10037,16 +10315,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>157.89656099999996</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>1.5843053381469574</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>99.662960919313491</v>
       </c>
       <c r="K28" t="str">
@@ -10073,16 +10351,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>5.4058649999999915</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>1.5843053381469574</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>3.4121358237186934</v>
       </c>
     </row>
@@ -10105,16 +10383,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>7.519999999999996</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>1.5843053381469574</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>4.7465597817120111</v>
       </c>
       <c r="K30" t="str">
@@ -10141,19 +10419,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>2.1141350000000045</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>1.5843053381469574</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>1.3344239579933177</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -10182,7 +10460,7 @@
       <c r="D33" s="1">
         <v>27</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -10217,7 +10495,7 @@
         <v>25</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -11163,6 +11441,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11170,8 +11449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57BB21E-B82D-46BA-9B01-A5A5AB8FCBBF}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11180,12 +11459,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11201,7 +11480,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -11218,7 +11497,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11692,13 +11971,13 @@
       <c r="D25" s="1">
         <v>111</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11721,16 +12000,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>414.07286300000004</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>3.6955392206462903</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>112.04666985717591</v>
       </c>
       <c r="K26" t="str">
@@ -11757,16 +12036,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>400.00703700000003</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>3.6955392206462903</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>108.24050649097028</v>
       </c>
       <c r="K27" t="str">
@@ -11793,16 +12072,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>327.19286300000005</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>3.6955392206462903</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>88.53724543688628</v>
       </c>
       <c r="K28" t="str">
@@ -11829,16 +12108,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>14.065826000000008</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>3.6955392206462903</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>3.8061633662056282</v>
       </c>
       <c r="K29" t="str">
@@ -11865,16 +12144,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>86.88</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>3.6955392206462903</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>23.509424420289626</v>
       </c>
       <c r="K30" t="str">
@@ -11901,19 +12180,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>72.81417399999998</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>3.6955392206462903</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>19.703261054083999</v>
       </c>
-      <c r="K31" s="12" t="str">
+      <c r="K31" s="11" t="str">
         <f>F31</f>
         <v>Kotlin</v>
       </c>
@@ -11945,7 +12224,7 @@
       <c r="D33" s="1">
         <v>111</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -11980,7 +12259,7 @@
         <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -12933,8 +13212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC276B8-A877-474B-9202-B43E024633C1}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12943,12 +13222,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12964,7 +13243,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -12981,7 +13260,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -13455,13 +13734,13 @@
       <c r="D25" s="1">
         <v>111</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13484,16 +13763,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>526.27964200000019</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>4.2287589684394824</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>124.45250389719197</v>
       </c>
       <c r="K26" t="str">
@@ -13520,16 +13799,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>486.95858700000019</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>4.2287589684394824</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>115.15401814913562</v>
       </c>
       <c r="K27" t="str">
@@ -13556,16 +13835,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>491.00964200000016</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>4.2287589684394824</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>116.11199542573952</v>
       </c>
       <c r="K28" t="str">
@@ -13592,16 +13871,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>39.321054999999959</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>4.2287589684394824</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>9.2984857480563399</v>
       </c>
       <c r="K29" t="str">
@@ -13628,16 +13907,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>35.269999999999996</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>4.2287589684394824</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>8.3405084714524431</v>
       </c>
       <c r="K30" t="str">
@@ -13664,19 +13943,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>4.0510549999999625</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>4.2287589684394824</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>0.95797727660389753</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -13705,7 +13984,7 @@
       <c r="D33" s="1">
         <v>118</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -13740,7 +14019,7 @@
         <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -14694,7 +14973,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14707,12 +14986,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14745,7 +15024,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -15219,13 +15498,13 @@
       <c r="D25" s="1">
         <v>109</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -15248,16 +15527,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>637.62830200000019</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>5.1028691279616556</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>124.95486088523324</v>
       </c>
       <c r="K26" t="str">
@@ -15284,16 +15563,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>691.53143600000021</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>5.1028691279616556</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>135.51816020730143</v>
       </c>
       <c r="K27" t="str">
@@ -15320,16 +15599,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>702.70830200000023</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>5.1028691279616556</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>137.70847034846403</v>
       </c>
       <c r="K28" t="str">
@@ -15356,16 +15635,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>53.903133999999994</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>5.1028691279616556</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>10.563299322068179</v>
       </c>
       <c r="K29" t="str">
@@ -15392,16 +15671,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>65.079999999999984</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>5.1028691279616556</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>12.753609463230783</v>
       </c>
       <c r="K30" t="str">
@@ -15428,19 +15707,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>11.17686599999999</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>5.1028691279616556</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>2.1903101411626045</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -15469,7 +15748,7 @@
       <c r="D33" s="1">
         <v>110</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -15504,7 +15783,7 @@
         <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">

--- a/Anova.xlsx
+++ b/Anova.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahp-\OneDrive\Escritorio\Software\ProyectoIntegrador\Nothing-but-speed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\ICESI\SEMESTRE_7\PROYECTO_INTEGRADOR_I\ProyectosVS\Nothing-but-speed-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42935CFE-9883-415C-8753-649261C1AC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="1440" windowWidth="17730" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9330" yWindow="1440" windowWidth="17730" windowHeight="11805" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Anova 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Anova 8" sheetId="11" r:id="rId8"/>
     <sheet name="Anova 9" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -193,34 +192,34 @@
     </r>
   </si>
   <si>
-    <t>Con base en el análisis anterior, se puede concluir que Java presenta diferencias significativas con respecto a los demás lenguajes siendo el lenguaje que obtuvo el menor tiempo de ejecución en promedio.</t>
-  </si>
-  <si>
-    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presetan diferencias significativas con respecto a los demás lenguajes, siendo éstos 2 los que tuvieron menores tiempos de ejecución en promedio.</t>
-  </si>
-  <si>
     <t>Con base en el análisis anterior, se puede concluir que todos los lenguajes presetan diferencias significativas entre si, siendo Java el que tuvo menores tiempos de ejecución en promedio.</t>
   </si>
   <si>
-    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presentan diferencias significativas con respecto a los demás lenguajes, siendo éstos 2 los que tuvieron menores tiempos de ejecución en promedio.</t>
+    <t>Con base en el análisis anterior, se puede concluir que Kotlin presenta diferencias significativas con respecto a los demás lenguajes, siendo el lenguaje que tuvo el menor tiempo de ejecución en promedio.</t>
   </si>
   <si>
-    <t>Con base en el analisis anterior, se puede concluir que Java, Kotlin y Go presentaron diferencias significativas con respecto a C# mostrando tener tiempos de ejecución menores, pero no mostraron ninguna diferencia significativa entre ellos.</t>
+    <t>Con base en el análisis anterior, se puede concluir que Java, Kotlin y Go presentaron diferencias significativas con respecto a C# mostrando tener tiempos de ejecución menores, pero no mostraron ninguna diferencia significativa entre ellos.</t>
   </si>
   <si>
-    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presentan diferencias significativas con respecto a los demás lenguajes, siendo éstos 2 los que tuvieron los menores tiempos de ejecución en promedio.</t>
+    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presentan diferencias significativas con respecto a los demás lenguajes, siendo estos 2 los que tuvieron los menores tiempos de ejecución en promedio.</t>
   </si>
   <si>
-    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Java presentan diferencias significativas con respecto a los demás lenguajes, siendo éstos 2 los que tuvieron los menores tiempos de ejecución en promedio.</t>
+    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Java presentan diferencias significativas con respecto a los demás lenguajes, siendo estos 2 los que tuvieron los menores tiempos de ejecución en promedio.</t>
   </si>
   <si>
-    <t>Con base en el analisis anterior, se puede concluir que Kotlin presenta diferencias significativas con respecto a los demás lenguajes, siendo el lenguaje que tuvo el menor tiempo de ejecución en promedio.</t>
+    <t>Con base en el análisis anterior, se puede concluir que Java presenta diferencias significativas con respecto a los demás lenguajes, siendo el lenguaje que obtuvo el menor tiempo de ejecución en promedio.</t>
+  </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presetan diferencias significativas con respecto a los demás lenguajes, siendo estos 2 los que tuvieron menores tiempos de ejecución en promedio.</t>
+  </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que tanto Kotlin como Go presentan diferencias significativas con respecto a los demás lenguajes, siendo estos 2 los que tuvieron menores tiempos de ejecución en promedio.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -323,9 +322,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -334,6 +330,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,11 +612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,12 +630,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1143,13 +1142,13 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1172,16 +1171,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>2.0413459999999994</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>5.3248257011949275E-2</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>38.336390983500308</v>
       </c>
       <c r="K26" t="str">
@@ -1208,16 +1207,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>2.2724779999999996</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>5.3248257011949275E-2</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>42.677040104618634</v>
       </c>
       <c r="K27" t="str">
@@ -1244,16 +1243,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>2.0530009999999992</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>5.3248257011949275E-2</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>38.555271387367512</v>
       </c>
       <c r="K28" t="str">
@@ -1280,16 +1279,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>0.23113199999999984</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>5.3248257011949275E-2</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>4.3406491211183162</v>
       </c>
       <c r="K29" t="str">
@@ -1316,16 +1315,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>1.1654999999999804E-2</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>5.3248257011949275E-2</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>0.21888040386719779</v>
       </c>
     </row>
@@ -1348,19 +1347,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>0.21947700000000003</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>5.3248257011949275E-2</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>5.3248257011949275E-2</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>4.1217687172511184</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1391,7 +1390,7 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -1426,7 +1425,7 @@
         <v>0.99850000000000005</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,10 +2376,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF2F9D6-3D75-4F96-A111-135C7887C39D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -2391,12 +2390,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2903,13 +2902,13 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2932,16 +2931,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>2.3184619999999998</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>3.9804150182994803E-2</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>58.246740335898366</v>
       </c>
       <c r="K26" t="str">
@@ -2968,16 +2967,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>2.3468109999999998</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>3.9804150182994803E-2</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>58.958952501455698</v>
       </c>
       <c r="K27" t="str">
@@ -3004,16 +3003,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>2.3175259999999995</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>3.9804150182994803E-2</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>58.223225200021908</v>
       </c>
       <c r="K28" t="str">
@@ -3040,16 +3039,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>2.8348999999999847E-2</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>3.9804150182994803E-2</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>0.71221216555732814</v>
       </c>
     </row>
@@ -3072,16 +3071,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>9.3600000000010342E-4</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>3.9804150182994803E-2</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>2.3515135876459006E-2</v>
       </c>
     </row>
@@ -3104,19 +3103,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>2.928499999999995E-2</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>3.9804150182994803E-2</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>3.9804150182994803E-2</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>0.73572730143378706</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -3145,7 +3144,7 @@
       <c r="D33" s="1">
         <v>0.99829999999999997</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -3180,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -4131,11 +4130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42FA099-8E83-4C9E-B857-86208A6A5ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,12 +4143,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4656,13 +4655,13 @@
       <c r="D25" s="1">
         <v>0.99909999999999999</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4685,16 +4684,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>1.2724479999999998</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>4.3092651739618217E-2</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>29.528189810378869</v>
       </c>
       <c r="K26" t="str">
@@ -4721,16 +4720,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>1.4685219999999997</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>4.3092651739618217E-2</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>34.078246306895991</v>
       </c>
       <c r="K27" t="str">
@@ -4757,16 +4756,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>1.5749809999999997</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>4.3092651739618217E-2</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>36.548713908733653</v>
       </c>
       <c r="K28" t="str">
@@ -4793,16 +4792,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>0.19607399999999969</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>4.3092651739618217E-2</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>4.5500564965171213</v>
       </c>
       <c r="K29" t="str">
@@ -4829,16 +4828,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>0.30253299999999977</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>4.3092651739618217E-2</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>7.0205240983547812</v>
       </c>
       <c r="K30" t="str">
@@ -4865,19 +4864,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>0.10645900000000008</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>4.3092651739618217E-2</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>4.3092651739618217E-2</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>2.4704676018376599</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -4906,7 +4905,7 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -4941,7 +4940,7 @@
         <v>0.53839999999999999</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5891,11 +5890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A3E2EE-870A-4BF2-932E-2200EE9DCA7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5904,12 +5903,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6416,13 +6415,13 @@
       <c r="D25" s="1">
         <v>28</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6445,16 +6444,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>127.87081000000002</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.6135444709016262</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>79.248395260248131</v>
       </c>
       <c r="K26" t="str">
@@ -6481,16 +6480,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>123.81652500000001</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.6135444709016262</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>76.735737522507236</v>
       </c>
       <c r="K27" t="str">
@@ -6517,16 +6516,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>106.03081000000002</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>1.6135444709016262</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>65.71297656317553</v>
       </c>
       <c r="K28" t="str">
@@ -6553,16 +6552,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>4.0542849999999993</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>1.6135444709016262</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>2.5126577377408887</v>
       </c>
     </row>
@@ -6585,16 +6584,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>21.84</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>1.6135444709016262</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>13.535418697072608</v>
       </c>
       <c r="K30" t="str">
@@ -6621,19 +6620,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>17.785715000000003</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.6135444709016262</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>1.6135444709016262</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>11.022760959331722</v>
       </c>
-      <c r="K31" s="12" t="str">
+      <c r="K31" s="11" t="str">
         <f>F31</f>
         <v>Kotlin</v>
       </c>
@@ -6665,7 +6664,7 @@
       <c r="D33" s="1">
         <v>28</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -6700,7 +6699,7 @@
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -7650,10 +7649,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D70CC9B-CA69-4FE4-9DA5-007A038F9C9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -7664,12 +7663,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8176,13 +8175,13 @@
       <c r="D25" s="1">
         <v>27</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8205,16 +8204,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>150.91057299999997</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.9749856944411999</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>76.410970178038895</v>
       </c>
       <c r="K26" t="str">
@@ -8241,16 +8240,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>142.05337499999996</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.9749856944411999</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>71.92628047880234</v>
       </c>
       <c r="K27" t="str">
@@ -8277,16 +8276,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>143.03057299999998</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>1.9749856944411999</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>72.421067860174489</v>
       </c>
       <c r="K28" t="str">
@@ -8313,16 +8312,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>8.8571980000000146</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>1.9749856944411999</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>4.4846896992365606</v>
       </c>
       <c r="K29" t="str">
@@ -8349,16 +8348,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>7.8800000000000026</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>1.9749856944411999</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>3.9899023178644137</v>
       </c>
       <c r="K30" t="str">
@@ -8385,19 +8384,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>0.977198000000012</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9749856944411999</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>1.9749856944411999</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>0.49478738137214673</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -8426,7 +8425,7 @@
       <c r="D33" s="1">
         <v>28</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -8461,7 +8460,7 @@
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -9411,11 +9410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCC2CDA-0CFE-4400-81E1-4B96BD0FC0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9424,12 +9423,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9936,13 +9935,13 @@
       <c r="D25" s="1">
         <v>27</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9965,16 +9964,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>150.37656099999998</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.5843053381469574</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>94.916401137601497</v>
       </c>
       <c r="K26" t="str">
@@ -10001,16 +10000,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>155.78242599999996</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>1.5843053381469574</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>98.328536961320168</v>
       </c>
       <c r="K27" t="str">
@@ -10037,16 +10036,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>157.89656099999996</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>1.5843053381469574</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>99.662960919313491</v>
       </c>
       <c r="K28" t="str">
@@ -10073,16 +10072,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>5.4058649999999915</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>1.5843053381469574</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>3.4121358237186934</v>
       </c>
     </row>
@@ -10105,16 +10104,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>7.519999999999996</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>1.5843053381469574</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>4.7465597817120111</v>
       </c>
       <c r="K30" t="str">
@@ -10141,19 +10140,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>2.1141350000000045</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5843053381469574</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>1.5843053381469574</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>1.3344239579933177</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -10182,7 +10181,7 @@
       <c r="D33" s="1">
         <v>27</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -10216,8 +10215,8 @@
       <c r="D35" s="1">
         <v>25</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>40</v>
+      <c r="F35" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -11167,11 +11166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57BB21E-B82D-46BA-9B01-A5A5AB8FCBBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11180,12 +11179,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11692,13 +11691,13 @@
       <c r="D25" s="1">
         <v>111</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11721,16 +11720,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>414.07286300000004</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>3.6955392206462903</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>112.04666985717591</v>
       </c>
       <c r="K26" t="str">
@@ -11757,16 +11756,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>400.00703700000003</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>3.6955392206462903</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>108.24050649097028</v>
       </c>
       <c r="K27" t="str">
@@ -11793,16 +11792,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>327.19286300000005</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>3.6955392206462903</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>88.53724543688628</v>
       </c>
       <c r="K28" t="str">
@@ -11829,16 +11828,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>14.065826000000008</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>3.6955392206462903</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>3.8061633662056282</v>
       </c>
       <c r="K29" t="str">
@@ -11865,16 +11864,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>86.88</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>3.6955392206462903</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>23.509424420289626</v>
       </c>
       <c r="K30" t="str">
@@ -11901,19 +11900,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>72.81417399999998</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>3.6955392206462903</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>3.6955392206462903</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>19.703261054083999</v>
       </c>
-      <c r="K31" s="12" t="str">
+      <c r="K31" s="11" t="str">
         <f>F31</f>
         <v>Kotlin</v>
       </c>
@@ -11945,7 +11944,7 @@
       <c r="D33" s="1">
         <v>111</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -11980,7 +11979,7 @@
         <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -12930,11 +12929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC276B8-A877-474B-9202-B43E024633C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12943,12 +12942,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13455,13 +13454,13 @@
       <c r="D25" s="1">
         <v>111</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13484,16 +13483,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>526.27964200000019</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>4.2287589684394824</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>124.45250389719197</v>
       </c>
       <c r="K26" t="str">
@@ -13520,16 +13519,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>486.95858700000019</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>4.2287589684394824</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>115.15401814913562</v>
       </c>
       <c r="K27" t="str">
@@ -13556,16 +13555,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>491.00964200000016</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>4.2287589684394824</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>116.11199542573952</v>
       </c>
       <c r="K28" t="str">
@@ -13592,16 +13591,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>39.321054999999959</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>4.2287589684394824</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>9.2984857480563399</v>
       </c>
       <c r="K29" t="str">
@@ -13628,16 +13627,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>35.269999999999996</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>4.2287589684394824</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>8.3405084714524431</v>
       </c>
       <c r="K30" t="str">
@@ -13664,19 +13663,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>4.0510549999999625</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>4.2287589684394824</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>4.2287589684394824</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>0.95797727660389753</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -13705,7 +13704,7 @@
       <c r="D33" s="1">
         <v>118</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -13740,7 +13739,7 @@
         <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -14690,11 +14689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26612B0A-82F6-4797-80C1-10269757BB1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14707,12 +14706,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -15219,13 +15218,13 @@
       <c r="D25" s="1">
         <v>109</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -15248,16 +15247,16 @@
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f>ABS(I9-I10)</f>
         <v>637.62830200000019</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f>SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>5.1028691279616556</v>
       </c>
-      <c r="J26" s="10">
-        <f>H26/I26</f>
+      <c r="J26" s="9">
+        <f t="shared" ref="J26:J31" si="0">H26/I26</f>
         <v>124.95486088523324</v>
       </c>
       <c r="K26" t="str">
@@ -15284,16 +15283,16 @@
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f>ABS(I9-I11)</f>
         <v>691.53143600000021</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I31" si="0">SQRT(0.5*$I$18*(1/100+1/100))</f>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I31" si="1">SQRT(0.5*$I$18*(1/100+1/100))</f>
         <v>5.1028691279616556</v>
       </c>
-      <c r="J27" s="10">
-        <f>H27/I27</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>135.51816020730143</v>
       </c>
       <c r="K27" t="str">
@@ -15320,16 +15319,16 @@
       <c r="G28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f>ABS(I9-I12)</f>
         <v>702.70830200000023</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
-        <v>5.1028691279616556</v>
-      </c>
-      <c r="J28" s="10">
-        <f>H28/I28</f>
         <v>137.70847034846403</v>
       </c>
       <c r="K28" t="str">
@@ -15356,16 +15355,16 @@
       <c r="G29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f>ABS(I10-I11)</f>
         <v>53.903133999999994</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
-        <v>5.1028691279616556</v>
-      </c>
-      <c r="J29" s="10">
-        <f>H29/I29</f>
         <v>10.563299322068179</v>
       </c>
       <c r="K29" t="str">
@@ -15392,16 +15391,16 @@
       <c r="G30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f>ABS(I10-I12)</f>
         <v>65.079999999999984</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
-        <v>5.1028691279616556</v>
-      </c>
-      <c r="J30" s="10">
-        <f>H30/I30</f>
         <v>12.753609463230783</v>
       </c>
       <c r="K30" t="str">
@@ -15428,19 +15427,19 @@
       <c r="G31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f>ABS(I11-I12)</f>
         <v>11.17686599999999</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1028691279616556</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
-        <v>5.1028691279616556</v>
-      </c>
-      <c r="J31" s="10">
-        <f>H31/I31</f>
         <v>2.1903101411626045</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -15469,7 +15468,7 @@
       <c r="D33" s="1">
         <v>110</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J33" t="s">
@@ -15504,7 +15503,7 @@
         <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">

--- a/Anova.xlsx
+++ b/Anova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dahp-\OneDrive\Escritorio\Software\ProyectoIntegrador\Nothing-but-speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2745C5A1-C231-4331-895F-255E5AA97A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868AC0D6-6C2F-4F75-B9B3-53B1B98EB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="1440" windowWidth="17730" windowHeight="11805" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9330" yWindow="1440" windowWidth="17730" windowHeight="11805" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anova 1" sheetId="1" r:id="rId1"/>
@@ -215,9 +215,6 @@
       </rPr>
       <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 10000 elementos ordenados previamente de forma aleatoria.</t>
     </r>
-  </si>
-  <si>
-    <t>Con base en el análisis anterior, se puede concluir que C# evidencia diferencias significativas con respecto a los demás lenguajes, siendo el que mayor tiempo de ejecución obtuvo. Por otro lado, Go presentó diferencias con respecto a Java mostrando ser levemente más rapido, sin embargo con Kotlin no obtuvo ninguna diferencia significativa.</t>
   </si>
   <si>
     <r>
@@ -500,6 +497,9 @@
       <t>Existe por lo menos un par de medias en las que hay diferencias en el tiempo promedio de ejecución del algoritmo de ordenamiento en un arreglo de 10000 elementos ordenados previamente de forma decendiente.</t>
     </r>
   </si>
+  <si>
+    <t>Con base en el análisis anterior, se puede concluir que Go presentó diferencias con respecto a Java mostrando ser levemente más rapido, sin embargo con Kotlin no obtuvo ninguna diferencia significativa. Por otro lado, C# mostró los peores resultados con respecto al resto de los lenguajes.</t>
+  </si>
 </sst>
 </file>
 
@@ -608,10 +608,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,12 +909,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>0.50790000000000002</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2669,12 +2669,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2690,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2707,7 +2707,7 @@
         <v>1.0001</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4422,12 +4422,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4443,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6182,12 +6182,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6203,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6220,7 +6220,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7942,12 +7942,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7963,7 +7963,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7980,7 +7980,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -9692,22 +9692,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCC2CDA-0CFE-4400-81E1-4B96BD0FC0C0}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9723,7 +9724,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9740,7 +9741,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -10494,8 +10495,8 @@
       <c r="D35" s="1">
         <v>25</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>47</v>
+      <c r="F35" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -11459,12 +11460,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11480,7 +11481,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -11497,7 +11498,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -13212,8 +13213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC276B8-A877-474B-9202-B43E024633C1}">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13222,12 +13223,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13243,7 +13244,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -13260,7 +13261,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -14986,12 +14987,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
